--- a/data/process_01/inputData.xlsx
+++ b/data/process_01/inputData.xlsx
@@ -112,7 +112,7 @@
     <x:t>Standard PO 4500087236 created</x:t>
   </x:si>
   <x:si>
-    <x:t>Standard PO created under the number 4500087278</x:t>
+    <x:t>Standard PO created under the number 4500087286</x:t>
   </x:si>
   <x:si>
     <x:t>Yes</x:t>
@@ -139,7 +139,7 @@
     <x:t>Inbound Delivery 183369692</x:t>
   </x:si>
   <x:si>
-    <x:t>183369772</x:t>
+    <x:t>183369796</x:t>
   </x:si>
   <x:si>
     <x:t>Change Inbound Delivery</x:t>
@@ -157,7 +157,7 @@
     <x:t>Material Document 5002885751</x:t>
   </x:si>
   <x:si>
-    <x:t>Goods receipt for inbound delivery 183369765 posted (material document 5002885782)</x:t>
+    <x:t>Goods receipt for inbound delivery 183369796 posted (material document 5002885797)</x:t>
   </x:si>
   <x:si>
     <x:t>Date of Manufacturing</x:t>
@@ -169,7 +169,7 @@
     <x:t>QA32</x:t>
   </x:si>
   <x:si>
-    <x:t>Usage decision for lot 1000 10000005208 is saved</x:t>
+    <x:t>Usage decision for lot 1000 10000005209 is saved</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -335,12 +335,1209 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="174">
+  <x:cellStyleXfs count="573">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -941,7 +2138,7 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="31">
+  <x:dxfs count="94">
     <x:dxf>
       <x:fill>
         <x:patternFill patternType="solid">
@@ -969,6 +2166,573 @@
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFF0000"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FF00B050"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
+    </x:dxf>
+    <x:dxf>
+      <x:font/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:bgColor rgb="FFFFFF00"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border/>
     </x:dxf>
     <x:dxf>
       <x:font/>
@@ -2011,18 +3775,18 @@
     <x:mergeCell ref="C13:C15"/>
   </x:mergeCells>
   <x:conditionalFormatting sqref="I2:I24">
-    <x:cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <x:cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
       <x:formula>"Fail"</x:formula>
     </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <x:cfRule type="cellIs" dxfId="92" priority="2" operator="equal">
       <x:formula>"Pass"</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="H2:H24">
-    <x:cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <x:cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
       <x:formula>"No"</x:formula>
     </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <x:cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
       <x:formula>"Yes"</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
